--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Provident.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Provident.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A9165-246C-45C2-952B-64B1908B480C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF492926-8055-4A95-A9F4-2BE425E8714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>company_code</t>
   </si>
@@ -76,13 +76,43 @@
   </si>
   <si>
     <t>003</t>
+  </si>
+  <si>
+    <t>empprovident_type</t>
+  </si>
+  <si>
+    <t>rate_com</t>
+  </si>
+  <si>
+    <t>rate_emp</t>
+  </si>
+  <si>
+    <t>วิธีกำหนดอัตราการจ่าย</t>
+  </si>
+  <si>
+    <t>บริษัท(%)</t>
+  </si>
+  <si>
+    <t>พนักงาน(%)</t>
+  </si>
+  <si>
+    <t>A - ตามอายุกองทุนสำรองเลี้ยงชีพ</t>
+  </si>
+  <si>
+    <t>F - ค่าคงที่</t>
+  </si>
+  <si>
+    <t>C - ตามอายุกองทุนฯ|พนักงานคงที่</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +142,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF495057"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,8 +205,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,9 +277,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,26 +312,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,26 +347,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -575,10 +582,10 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5">
@@ -598,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,9 +620,12 @@
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,8 +647,17 @@
       <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -660,27 +679,60 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5">
-        <v>43982</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43983</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="E3" s="8">
+        <v>44927</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44928</v>
+      </c>
+      <c r="G3" s="8">
+        <v>44929</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Provident.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Provident.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF492926-8055-4A95-A9F4-2BE425E8714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34167DB3-8659-4CE9-A5EF-F54FFCB2CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>company_code</t>
   </si>
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -205,7 +205,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
     <col min="22" max="22" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,8 +574,17 @@
       <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -607,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
